--- a/PO/data/var.xlsx
+++ b/PO/data/var.xlsx
@@ -1,40 +1,293 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9096"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>计划拜访人次</t>
+  </si>
+  <si>
+    <t>select count(1) 计划拜访人次 from t_visit WHERE user_id=84 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't_visit', None, 'ref', 'idx_user_id', 'idx_user_id', '4', 'const', 509, 1.11, 'Using where')</t>
+  </si>
+  <si>
+    <t>实际拜访人次</t>
+  </si>
+  <si>
+    <t>select count(1) 实际拜访人次 from t_visit WHERE user_id=84 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't_visit', None, 'ref', 'idx_user_id', 'idx_user_id', '4', 'const', 509, 0.11, 'Using where')</t>
+  </si>
+  <si>
+    <t>实际拜访率</t>
+  </si>
+  <si>
+    <t>select  count(1) 双A客户拜访人次 from t_visit WHERE user_id=84 and double_a_mark=1 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't_visit', None, 'ref', 'idx_user_id', 'idx_user_id', '4', 'const', 509, 0.01, 'Using where')</t>
+  </si>
+  <si>
+    <t>双A客户实际拜访人次</t>
+  </si>
+  <si>
+    <t>select   count(1) 双A客户拜访人次 from t_visit WHERE user_id=84 and potentiality_mark=1 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>双A客户实际拜访率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*)  新增客户数（位） from t_customer_info where delegate_id=84 and create_at&gt;='2022-06-01' and  create_at&lt;='2022-06-30 23:59:59'  and customer_status=2 and (region_manager_examine =1 or region_manager_examine is null)
+</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't_customer_info', None, 'range', 'idx_create_at_delegate_id', 'idx_create_at_delegate_id', '14', None, 64, 0.19, 'Using index condition; Using where')</t>
+  </si>
+  <si>
+    <t>双A客户实际拜访覆盖率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(DISTINCT(t2.customer_id)) from t_meeting_info t1 LEFT  JOIN t_customer_follow t2 on t1.id=t2.meeting_id where t1.apply_people_id=84 and t1.valid_status=1 and t1.create_at&gt;='2022-06-01' and t1.create_at&lt;='2022-06-30 23:59:59'
+</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't1', None, 'ALL', None, None, None, None, 146, 0.68, 'Using where')</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't2', None, 'ALL', None, None, None, None, 102, 100.0, 'Using where; Using join buffer (Block Nested Loop)')</t>
+  </si>
+  <si>
+    <t>双A客户拜访频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(DISTINCT(customer_id))  from t_visit WHERE user_id=84 and meeting_after_mark=1  and created_at&gt;='2022-06-01' and created_at&lt;='2022-06-30 23:59:59'and valid_status=1
+</t>
+  </si>
+  <si>
+    <t>高潜客户实际拜访人次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(DISTINCT customer_id) 达成会后跟进目标人数 from t_visit  t1 inner join t_result_basics t2 on t1.id=t2.visit_id WHERE user_id=84 and t2.market_conclude=1  and t1.created_at&gt;='2022-06-01' and t1.created_at&lt;='2022-06-30 23:59:59' and t1.valid_status=1
+</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't2', None, 'ALL', None, None, None, None, 10960, 10.0, 'Using where')</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 't1', None, 'eq_ref', 'PRIMARY,idx_user_id', 'PRIMARY', '8', 'crm.t2.visit_id', 1, 5.0, 'Using where')</t>
+  </si>
+  <si>
+    <t>高潜客户实际拜访率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(distinct a.id) 客户总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=84 and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1
+</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 'a', None, 'ALL', None, None, None, None, 4404, 0.02, 'Using where')</t>
+  </si>
+  <si>
+    <t>(1, 'SIMPLE', 'b', None, 'ref', 'idx_user_id', 'idx_user_id', '4', 'const', 509, 100.0, 'Using index')</t>
+  </si>
+  <si>
+    <t>高潜客户实际拜访覆盖率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(DISTINCT(customer_id)) 实际拜访人数 from t_visit WHERE user_id=84 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'
+</t>
+  </si>
+  <si>
+    <t>高潜客户拜访频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(distinct a.id) 客户双A总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=84 and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1 and a.double_a_mark=1
+</t>
+  </si>
+  <si>
+    <t>新增客户数（位）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(distinct a.id) 客户高潜总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=84 and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1 and a.potentiality_mark=1
+</t>
+  </si>
+  <si>
+    <t>实际拜访客户覆盖率</t>
+  </si>
+  <si>
+    <t>select sum(双A客户实际拜访人数) from(select count(DISTINCT customer_id) 双A客户实际拜访人数 from t_visit WHERE user_id=84 and double_a_mark=1 and state=3 and 
+valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59' GROUP BY  customer_id  HAVING(count(*)&gt;=6))双A客户实际拜访人数</t>
+  </si>
+  <si>
+    <t>(1, 'PRIMARY', '&lt;derived2&gt;', None, 'ALL', None, None, None, None, 2, 100.0, None)</t>
+  </si>
+  <si>
+    <t>(2, 'DERIVED', 't_visit', None, 'ref', 'idx_user_id', 'idx_user_id', '4', 'const', 509, 0.01, 'Using index condition; Using where; Using filesort')</t>
+  </si>
+  <si>
+    <t>计划会议之后跟进人数</t>
+  </si>
+  <si>
+    <t>select sum(高潜客户实际拜访人数) from(select count(DISTINCT customer_id) 高潜客户实际拜访人数 from t_visit WHERE user_id=84 and potentiality_mark=1 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59' GROUP BY  customer_id HAVING(count(*)&gt;=4))高潜客户实际拜访人数</t>
+  </si>
+  <si>
+    <t>实际会后跟进人数</t>
+  </si>
+  <si>
+    <t>会后跟进率</t>
+  </si>
+  <si>
+    <t>达成会后跟进目标人数</t>
+  </si>
+  <si>
+    <t>拜访定位匹配人次</t>
+  </si>
+  <si>
+    <t>客户总数</t>
+  </si>
+  <si>
+    <t>实际拜访人数</t>
+  </si>
+  <si>
+    <t>客户双A总数</t>
+  </si>
+  <si>
+    <t>客户高潜总数</t>
+  </si>
+  <si>
+    <t>双A客户实际拜访人数（拜访完成大于等于6次的人数）</t>
+  </si>
+  <si>
+    <t>高潜客户实际拜访人数（拜访完成大于等于4次的人数）</t>
+  </si>
+  <si>
+    <t>SELECT count(1) 实际拜访人次 from t_visit WHERE user_id=84 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>SELECT  count(1) 双A客户拜访人次 from t_visit WHERE user_id=84 and double_a_mark=1 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>SELECT   count(1) 双A客户拜访人次 from t_visit WHERE user_id=84 and potentiality_mark=1 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(*)  新增客户数（位） from t_customer_info where delegate_id=84 and create_at&gt;='2022-06-01' and  create_at&lt;='2022-06-30 23:59:59'  and customer_status=2 and (region_manager_examine =1 or region_manager_examine is null)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(DISTINCT(customer_id))  from t_visit WHERE user_id=84 and meeting_after_mark=1  and created_at&gt;='2022-06-01' and created_at&lt;='2022-06-30 23:59:59'and valid_status=1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(DISTINCT customer_id) 达成会后跟进目标人数 from t_visit  t1 inner join t_result_basics t2 on t1.id=t2.visit_id WHERE user_id=84 and t2.market_conclude=1  and t1.created_at&gt;='2022-06-01' and t1.created_at&lt;='2022-06-30 23:59:59' and t1.valid_status=1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(distinct a.id) 客户总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=84 and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(DISTINCT(customer_id)) 实际拜访人数 from t_visit WHERE user_id=84 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(distinct a.id) 客户双A总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=84 and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1 and a.double_a_mark=1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(distinct a.id) 客户高潜总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=84 and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1 and a.potentiality_mark=1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select sum(双A客户实际拜访人数) from(SELECT count(DISTINCT customer_id) 双A客户实际拜访人数 from t_visit WHERE user_id=84 and double_a_mark=1 and state=3 and 
+</t>
+  </si>
+  <si>
+    <t>select sum(高潜客户实际拜访人数) from(SELECT count(DISTINCT customer_id) 高潜客户实际拜访人数 from t_visit WHERE user_id=84 and potentiality_mark=1 and state=3 and valid_status=1 and created_at&gt;='2022-06-01' and  created_at&lt;='2022-06-30 23:59:59' GROUP BY  customer_id HAVING(count(*)&gt;=4))高潜客户实际拜访人数</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="12"/>
+      <color theme="0" tint="-9.9978637043366805E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.89989928891872917"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,24 +299,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -133,6 +414,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +433,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -420,45 +709,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="111.5546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A26:A39"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A40:A1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>stu_info</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[{'id': 309, 'name': '小白', 'sex': '男', 'age': 28}, {'id': 310, 'name': '小黑', 'sex': '男', 'age': 28, 'addr': '河南省济源市北海大道32号'}]</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="226.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="243.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="191.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="226.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="191.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="243.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="243.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="278.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>